--- a/data/rational_quadratic_gpr_results.xlsx
+++ b/data/rational_quadratic_gpr_results.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001576</v>
+        <v>0.00159</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001339</v>
+        <v>0.001407</v>
       </c>
       <c r="C2" t="n">
-        <v>7.499981</v>
+        <v>10.82109</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
